--- a/debug question answering/rangkuman percobaan.xlsx
+++ b/debug question answering/rangkuman percobaan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="29">
   <si>
     <t>percobaan ke</t>
   </si>
@@ -62,12 +62,54 @@
   <si>
     <t>no</t>
   </si>
+  <si>
+    <t>dulu</t>
+  </si>
+  <si>
+    <t>skrg</t>
+  </si>
+  <si>
+    <t>50 pertanyaan</t>
+  </si>
+  <si>
+    <t>ceil</t>
+  </si>
+  <si>
+    <t>Top N Passage</t>
+  </si>
+  <si>
+    <t>Sistem yang diuji</t>
+  </si>
+  <si>
+    <t>Mean Average Precision</t>
+  </si>
+  <si>
+    <t>Tanpa Relevance Feedback</t>
+  </si>
+  <si>
+    <t>Tanpa Relevance Feedback dengan sentence based</t>
+  </si>
+  <si>
+    <t>Dengan relevance feedback</t>
+  </si>
+  <si>
+    <t>Dengan relevance feedback dan sentence based</t>
+  </si>
+  <si>
+    <t>Top N Answer</t>
+  </si>
+  <si>
+    <t>Term limit</t>
+  </si>
+  <si>
+    <t>Doc limit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +117,136 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +277,193 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -116,20 +471,217 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,6 +691,1865 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grafik</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> MRR Terhadap 4 Sistem Tanya Jawab dengan Perubahan Top N Passage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tanpa Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$2,Sheet2!$A$6,Sheet2!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$2,Sheet2!$D$6,Sheet2!$D$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tanpa Relevance Feedback Dengan Sentence Based</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$2,Sheet2!$A$6,Sheet2!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$3,Sheet2!$D$7,Sheet2!$D$11)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$2,Sheet2!$A$6,Sheet2!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$4,Sheet2!$D$8,Sheet2!$D$12)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback dan Sentence Based</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$2,Sheet2!$A$6,Sheet2!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$5,Sheet2!$D$9,Sheet2!$D$13)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="177772032"/>
+        <c:axId val="177773952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="177772032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Top N Passage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177773952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177773952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Reciprocal Rank</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177772032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Grafik MRR Terhadap 4 Sistem Tanya Jawab dengan Perubahan Top N Answer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tanpa Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$18,Sheet2!$A$22,Sheet2!$A$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$18,Sheet2!$D$22,Sheet2!$D$26)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tanpa Relevance Feedback Dengan Sentence based</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$18,Sheet2!$A$22,Sheet2!$A$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$19,Sheet2!$D$23,Sheet2!$D$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$18,Sheet2!$A$22,Sheet2!$A$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$20,Sheet2!$D$24,Sheet2!$D$28)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback Dan Sentence Based</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$18,Sheet2!$A$22,Sheet2!$A$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$21,Sheet2!$D$25,Sheet2!$D$29)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="178026752"/>
+        <c:axId val="178033024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="178026752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Top N Answer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178033024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178033024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Reciprocal Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178026752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Grafik MRR 2 Sistem Tanya Jawab Relevance Feedback dengan perubahan Term Limit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$33,Sheet2!$A$35,Sheet2!$A$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$33,Sheet2!$D$35,Sheet2!$D$37)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback dan Sentence Based</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$33,Sheet2!$A$35,Sheet2!$A$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$34,Sheet2!$D$36,Sheet2!$D$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198145536"/>
+        <c:axId val="198147456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198145536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Term Limit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198147456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198147456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Reciprocal Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198145536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grafik Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Average Precision Dengan perubahan Top N dokumen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tanpa Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$42,Sheet2!$A$46,Sheet2!$A$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$C$42,Sheet2!$C$46,Sheet2!$C$50)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$42,Sheet2!$A$46,Sheet2!$A$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$C$44,Sheet2!$C$48,Sheet2!$C$52)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198177536"/>
+        <c:axId val="198179456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198177536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Top N Dokumen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198179456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198179456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Average Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198177536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Grafik MRR Terhadap 4 Sistem Tanya Jawab dengan Perubahan Top N Dokumen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tanpa Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$42,Sheet2!$A$46,Sheet2!$A$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$42,Sheet2!$D$46,Sheet2!$D$50)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tanpa Relevance Feedback Dengan Sentence Based</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$42,Sheet2!$A$46,Sheet2!$A$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$43,Sheet2!$D$47,Sheet2!$D$51)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$42,Sheet2!$A$46,Sheet2!$A$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$44,Sheet2!$D$48,Sheet2!$D$52)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Dengan Relevance Feedback dan Sentence Based</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet2!$A$42,Sheet2!$A$46,Sheet2!$A$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$D$45,Sheet2!$D$49,Sheet2!$D$53)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198491520"/>
+        <c:axId val="198493696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198491520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Top N Dokumen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198493696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198493696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Reciprocal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rank</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198491520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grafik perbandingan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Jumlah No Answer pada Sistem Tanya Jawab Tanpa Relevance Feedback dengan Top 8 Answer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dengan Sentence Based</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>NO ANSWER</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tanpa Sentence Based</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>NO ANSWER</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="19326464"/>
+        <c:axId val="19328000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="19326464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="19328000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19328000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="19326464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215902</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,15 +2839,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="12" width="9.140625" style="10"/>
+    <col min="16" max="16" width="9.140625" style="12"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,11 +2878,13 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P1"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -475,8 +2900,32 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -496,7 +2945,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -504,14 +2953,33 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="7">
         <v>0.36</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -531,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -539,14 +3007,33 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="7">
         <v>0.36</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -566,7 +3053,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -574,14 +3061,33 @@
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <v>0.36</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -601,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -609,14 +3115,33 @@
       <c r="I6">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="7">
         <v>0.36</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -636,7 +3161,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -644,14 +3169,33 @@
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>0.36</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -671,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -679,14 +3223,33 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="7">
         <v>0.34</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -706,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -714,14 +3277,33 @@
       <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="7">
         <v>0.35</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -741,7 +3323,7 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -749,14 +3331,33 @@
       <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="7">
         <v>0.11</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -776,7 +3377,7 @@
         <v>100</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -784,14 +3385,33 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="7">
         <v>0.06</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -819,14 +3439,33 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>0.48</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -854,14 +3493,33 @@
       <c r="I13">
         <v>5</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="7">
         <v>0.48</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -889,14 +3547,33 @@
       <c r="I14">
         <v>5</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="7">
         <v>0.48</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -924,14 +3601,33 @@
       <c r="I15">
         <v>8</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="7">
         <v>0.48</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M15" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -959,49 +3655,87 @@
       <c r="I16">
         <v>3</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="7">
         <v>0.48</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M16" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17">
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8">
         <v>50</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8">
+        <v>10</v>
+      </c>
+      <c r="I17" s="8">
         <v>5</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="9">
         <v>0.23</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M17" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1029,14 +3763,33 @@
       <c r="I18">
         <v>5</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="7">
         <v>0.15</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N18" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1056,7 +3809,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -1064,14 +3817,33 @@
       <c r="I19">
         <v>5</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="7">
         <v>0.36</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M19" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N19" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1091,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -1099,14 +3871,33 @@
       <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="7">
         <v>0.36</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M20" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1126,7 +3917,7 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -1134,14 +3925,33 @@
       <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="7">
         <v>0.36</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M21" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1161,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1169,14 +3979,33 @@
       <c r="I22">
         <v>8</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="7">
         <v>0.36</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M22" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N22" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1196,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -1204,14 +4033,33 @@
       <c r="I23">
         <v>3</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="7">
         <v>0.36</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="M23" s="1">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1231,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -1239,14 +4087,33 @@
       <c r="I24">
         <v>5</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="7">
         <v>0.34</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="M24" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N24" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1266,7 +4133,7 @@
         <v>10</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -1274,14 +4141,33 @@
       <c r="I25">
         <v>5</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="7">
         <v>0.35</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="9">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1301,7 +4187,7 @@
         <v>50</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -1309,14 +4195,33 @@
       <c r="I26">
         <v>5</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="7">
         <v>0.11</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M26" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N26" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1336,7 +4241,7 @@
         <v>100</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>10</v>
@@ -1344,14 +4249,33 @@
       <c r="I27">
         <v>5</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="7">
         <v>0.06</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="M27" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N27" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1379,14 +4303,33 @@
       <c r="I28">
         <v>5</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="7">
         <v>0.48</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M28" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N28" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -1414,14 +4357,33 @@
       <c r="I29">
         <v>5</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="7">
         <v>0.48</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M29" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N29" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -1449,14 +4411,33 @@
       <c r="I30">
         <v>5</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="7">
         <v>0.48</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M30" s="1">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N30" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -1484,14 +4465,33 @@
       <c r="I31">
         <v>8</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="7">
         <v>0.48</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M31" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N31" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -1519,14 +4519,33 @@
       <c r="I32">
         <v>3</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="7">
         <v>0.48</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M32" s="1">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N32" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -1554,14 +4573,33 @@
       <c r="I33">
         <v>5</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="7">
         <v>0.23</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M33" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N33" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -1589,12 +4627,31 @@
       <c r="I34">
         <v>5</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="7">
         <v>0.15</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M34" s="1">
         <v>0.22</v>
       </c>
+      <c r="N34" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R34" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1603,24 +4660,600 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/debug question answering/rangkuman percobaan.xlsx
+++ b/debug question answering/rangkuman percobaan.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="31">
   <si>
     <t>percobaan ke</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>Doc limit</t>
+  </si>
+  <si>
+    <t>persentasi</t>
+  </si>
+  <si>
+    <t>Jumlah Pertanyaan Benar</t>
   </si>
 </sst>
 </file>
@@ -623,7 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -638,6 +645,7 @@
     <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,11 +942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177772032"/>
-        <c:axId val="177773952"/>
+        <c:axId val="167306752"/>
+        <c:axId val="167308672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177772032"/>
+        <c:axId val="167306752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +974,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177773952"/>
+        <c:crossAx val="167308672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177773952"/>
+        <c:axId val="167308672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1016,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177772032"/>
+        <c:crossAx val="167306752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,11 +1278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178026752"/>
-        <c:axId val="178033024"/>
+        <c:axId val="185190656"/>
+        <c:axId val="185536896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178026752"/>
+        <c:axId val="185190656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1310,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178033024"/>
+        <c:crossAx val="185536896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1310,7 +1318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178033024"/>
+        <c:axId val="185536896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1347,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178026752"/>
+        <c:crossAx val="185190656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1507,11 +1515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198145536"/>
-        <c:axId val="198147456"/>
+        <c:axId val="185570816"/>
+        <c:axId val="185572736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198145536"/>
+        <c:axId val="185570816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1547,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198147456"/>
+        <c:crossAx val="185572736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198147456"/>
+        <c:axId val="185572736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1584,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198145536"/>
+        <c:crossAx val="185570816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,7 +1640,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1745,11 +1752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198177536"/>
-        <c:axId val="198179456"/>
+        <c:axId val="185873152"/>
+        <c:axId val="185875072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198177536"/>
+        <c:axId val="185873152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,14 +1778,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198179456"/>
+        <c:crossAx val="185875072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1786,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198179456"/>
+        <c:axId val="185875072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,21 +1815,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198177536"/>
+        <c:crossAx val="185873152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1873,7 +1877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2080,11 +2083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198491520"/>
-        <c:axId val="198493696"/>
+        <c:axId val="185923072"/>
+        <c:axId val="185924992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198491520"/>
+        <c:axId val="185923072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,14 +2109,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198493696"/>
+        <c:crossAx val="185924992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2121,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198493696"/>
+        <c:axId val="185924992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,21 +2151,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198491520"/>
+        <c:crossAx val="185923072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2213,7 +2213,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2289,11 +2288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="19326464"/>
-        <c:axId val="19328000"/>
+        <c:axId val="186073472"/>
+        <c:axId val="186075008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19326464"/>
+        <c:axId val="186073472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2301,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="19328000"/>
+        <c:crossAx val="186075008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2310,7 +2309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19328000"/>
+        <c:axId val="186075008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,21 +2332,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="19326464"/>
+        <c:crossAx val="186073472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2841,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,10 +2850,12 @@
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="9.140625" style="10"/>
-    <col min="16" max="16" width="9.140625" style="12"/>
+    <col min="10" max="10" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" style="12" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -2878,11 +2877,16 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="P1"/>
-      <c r="Q1" s="12"/>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -5256,4 +5260,899 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.34</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.57999999999999896</v>
+      </c>
+      <c r="K10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="K21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="K23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="K25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>